--- a/meta/en/16-9-1.xlsx
+++ b/meta/en/16-9-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>16.9.1. Proportion of children under 5 years of age whose births have been registered with a civil authority, by age</t>
   </si>
   <si>
-    <t>The National Statistical Committee (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y.I. Kalymbetova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y.kalymbetova@gmail.com </t>
-  </si>
-  <si>
-    <t>(0312) 32-46-55</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Proportion of children under 5 years of age whose births have been registered with a civil authority.</t>
   </si>
   <si>
@@ -144,6 +129,21 @@
   </si>
   <si>
     <t xml:space="preserve">The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io </t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
